--- a/portfoliotrack/static/media/modelo.xlsx
+++ b/portfoliotrack/static/media/modelo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PortfolioTrack\portfoliotrack\static\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8242DF54-2F27-4812-B9BB-1D96B791D397}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA68753-A41F-4A6D-86C5-B40E3E3036F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{27DF5CF8-DC69-495F-A46F-23F0F23978ED}"/>
   </bookViews>
@@ -74,7 +74,7 @@
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
-          <t>Tipo da Operação: 'C' para Compra ou 'V' para Venda</t>
+          <t>Tipo da Operação: 'C' para Compra, 'V' para Venda ou 'A' para Split/Agrup</t>
         </r>
       </text>
     </comment>
@@ -88,7 +88,7 @@
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
-          <t>Quantidade</t>
+          <t>Quantidade. Em caso de evento de Split/Agrup, use quantidade = 0</t>
         </r>
       </text>
     </comment>
@@ -116,7 +116,7 @@
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
-          <t>Tipo: 'Ações' ou 'FIIs'</t>
+          <t>Tipo: 'Ações', 'FIIs' ou 'SPLIT/AGRUP'</t>
         </r>
       </text>
     </comment>
@@ -142,9 +142,6 @@
     <t>unit_price</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>AESB3</t>
   </si>
   <si>
@@ -152,6 +149,9 @@
   </si>
   <si>
     <t>ações</t>
+  </si>
+  <si>
+    <t>sort_of</t>
   </si>
 </sst>
 </file>
@@ -580,7 +580,7 @@
   <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +610,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -618,10 +618,10 @@
         <v>45200</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -630,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.25">
